--- a/logistic_regression_results/step_size.xlsx
+++ b/logistic_regression_results/step_size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/furkan/Desktop/semester8/cmpe462/ML_Assignment1/logistic_regression_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85431A7A-A08D-0643-822B-CC0E06CD2068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE8A6AF-7796-154D-86E9-CBDD8CC0D002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="34200" windowHeight="21400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - step_size" sheetId="1" r:id="rId1"/>
@@ -366,9 +366,6 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -380,6 +377,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1543,8 +1543,8 @@
   </sheetPr>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="183" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="183" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1567,21 +1567,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1628,40 +1628,40 @@
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>44</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>44</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>44</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1693,13 +1693,13 @@
       <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>46</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>45</v>
       </c>
       <c r="M4" s="7" t="s">
@@ -1710,7 +1710,7 @@
       <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1734,7 +1734,7 @@
       <c r="I5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>46</v>
       </c>
       <c r="K5" s="7" t="s">
@@ -1775,7 +1775,7 @@
       <c r="I6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>46</v>
       </c>
       <c r="K6" s="7" t="s">
@@ -1792,7 +1792,7 @@
       <c r="A7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1816,7 +1816,7 @@
       <c r="I7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>46</v>
       </c>
       <c r="K7" s="7" t="s">
